--- a/attachments/RMFM2019_Schedule.xlsx
+++ b/attachments/RMFM2019_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterh/Desktop/Dropbox/Research/Seminar/RMFM/Website/rockymountainfluids.org/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC5C466-70BD-5943-AD8C-41F9BCC72CCB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69E704F-6660-5548-BD01-A4CF719D7F35}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20460" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2274,7 +2274,7 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="94" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
